--- a/satellite_fomo.xlsx
+++ b/satellite_fomo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-20N3PF2DZDP3-Data\honyuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\satellite_fomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB55DF40-AD77-404D-9276-F98A5E52C51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>T=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Latency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Latency(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,11 +53,23 @@
     <t>T=50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Latency(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>940MX (2G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,12 +86,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,11 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,20 +395,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="3" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="3" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -404,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -415,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -424,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
@@ -433,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
@@ -442,10 +469,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -471,7 +498,7 @@
         <v>614</v>
       </c>
       <c r="K4">
-        <v>14.2</v>
+        <v>35.9</v>
       </c>
       <c r="M4">
         <v>16</v>
@@ -480,10 +507,10 @@
         <v>614</v>
       </c>
       <c r="O4">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -509,7 +536,7 @@
         <v>716</v>
       </c>
       <c r="K5">
-        <v>25.5</v>
+        <v>63.5</v>
       </c>
       <c r="M5">
         <v>32</v>
@@ -518,10 +545,10 @@
         <v>716</v>
       </c>
       <c r="O5">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>64</v>
       </c>
@@ -547,7 +574,7 @@
         <v>878</v>
       </c>
       <c r="K6">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="M6">
         <v>64</v>
@@ -556,10 +583,10 @@
         <v>878</v>
       </c>
       <c r="O6">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>128</v>
       </c>
@@ -585,7 +612,7 @@
         <v>1198</v>
       </c>
       <c r="K7">
-        <v>90.6</v>
+        <v>226</v>
       </c>
       <c r="M7">
         <v>128</v>
@@ -594,10 +621,10 @@
         <v>1198</v>
       </c>
       <c r="O7">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>256</v>
       </c>
@@ -623,7 +650,7 @@
         <v>1876</v>
       </c>
       <c r="K8">
-        <v>174</v>
+        <v>436</v>
       </c>
       <c r="M8">
         <v>256</v>
@@ -632,10 +659,10 @@
         <v>1876</v>
       </c>
       <c r="O8">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>512</v>
       </c>
@@ -661,7 +688,7 @@
         <v>3186</v>
       </c>
       <c r="K9">
-        <v>290</v>
+        <v>859</v>
       </c>
       <c r="M9">
         <v>512</v>
@@ -670,10 +697,10 @@
         <v>3186</v>
       </c>
       <c r="O9">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1024</v>
       </c>
@@ -699,7 +726,7 @@
         <v>5822</v>
       </c>
       <c r="K10">
-        <v>566</v>
+        <v>1690</v>
       </c>
       <c r="M10">
         <v>1024</v>
@@ -708,11 +735,312 @@
         <v>5822</v>
       </c>
       <c r="O10">
-        <v>1690</v>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>614</v>
+      </c>
+      <c r="C15">
+        <v>6770</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>614</v>
+      </c>
+      <c r="G15">
+        <v>3340</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>614</v>
+      </c>
+      <c r="K15">
+        <v>1440</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>614</v>
+      </c>
+      <c r="O15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>716</v>
+      </c>
+      <c r="C16">
+        <v>13200</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>716</v>
+      </c>
+      <c r="G16">
+        <v>6550</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <v>716</v>
+      </c>
+      <c r="K16">
+        <v>2810</v>
+      </c>
+      <c r="M16">
+        <v>32</v>
+      </c>
+      <c r="N16">
+        <v>716</v>
+      </c>
+      <c r="O16">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>878</v>
+      </c>
+      <c r="C17">
+        <v>26200</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>878</v>
+      </c>
+      <c r="G17">
+        <v>13100</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>878</v>
+      </c>
+      <c r="K17">
+        <v>5600</v>
+      </c>
+      <c r="M17">
+        <v>64</v>
+      </c>
+      <c r="N17">
+        <v>878</v>
+      </c>
+      <c r="O17">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>1198</v>
+      </c>
+      <c r="C18">
+        <v>52700</v>
+      </c>
+      <c r="E18">
+        <v>128</v>
+      </c>
+      <c r="F18">
+        <v>1198</v>
+      </c>
+      <c r="G18">
+        <v>26200</v>
+      </c>
+      <c r="I18">
+        <v>128</v>
+      </c>
+      <c r="J18">
+        <v>1198</v>
+      </c>
+      <c r="K18">
+        <v>11300</v>
+      </c>
+      <c r="M18">
+        <v>128</v>
+      </c>
+      <c r="N18">
+        <v>1198</v>
+      </c>
+      <c r="O18">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>256</v>
+      </c>
+      <c r="B19">
+        <v>1876</v>
+      </c>
+      <c r="C19">
+        <v>105000</v>
+      </c>
+      <c r="E19">
+        <v>256</v>
+      </c>
+      <c r="F19">
+        <v>1876</v>
+      </c>
+      <c r="G19">
+        <v>52700</v>
+      </c>
+      <c r="I19">
+        <v>256</v>
+      </c>
+      <c r="J19">
+        <v>1876</v>
+      </c>
+      <c r="K19">
+        <v>22700</v>
+      </c>
+      <c r="M19">
+        <v>256</v>
+      </c>
+      <c r="N19">
+        <v>1876</v>
+      </c>
+      <c r="O19">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>512</v>
+      </c>
+      <c r="B20">
+        <v>3186</v>
+      </c>
+      <c r="E20">
+        <v>512</v>
+      </c>
+      <c r="F20">
+        <v>3186</v>
+      </c>
+      <c r="I20">
+        <v>512</v>
+      </c>
+      <c r="J20">
+        <v>3186</v>
+      </c>
+      <c r="M20">
+        <v>512</v>
+      </c>
+      <c r="N20">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1024</v>
+      </c>
+      <c r="B21">
+        <v>5822</v>
+      </c>
+      <c r="E21">
+        <v>1024</v>
+      </c>
+      <c r="F21">
+        <v>5822</v>
+      </c>
+      <c r="I21">
+        <v>1024</v>
+      </c>
+      <c r="J21">
+        <v>5822</v>
+      </c>
+      <c r="M21">
+        <v>1024</v>
+      </c>
+      <c r="N21">
+        <v>5822</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/satellite_fomo.xlsx
+++ b/satellite_fomo.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\satellite_fomo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honyuan\Projects\satellite_fomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C108DA-DB5A-4DA9-9DC7-8A289BD7E7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Loop Transformer" sheetId="1" r:id="rId1"/>
+    <sheet name="Vanilla Transformer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
   <si>
     <t>T=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,13 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,32 +396,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="3" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="3" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -472,7 +472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>16</v>
       </c>
@@ -510,7 +510,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>32</v>
       </c>
@@ -548,7 +548,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>64</v>
       </c>
@@ -586,7 +586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>128</v>
       </c>
@@ -624,7 +624,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>256</v>
       </c>
@@ -662,7 +662,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>512</v>
       </c>
@@ -700,7 +700,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1024</v>
       </c>
@@ -738,13 +738,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -758,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -796,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
@@ -834,7 +833,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>32</v>
       </c>
@@ -872,7 +871,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>64</v>
       </c>
@@ -910,7 +909,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>128</v>
       </c>
@@ -948,7 +947,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>256</v>
       </c>
@@ -986,7 +985,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>512</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1024</v>
       </c>
@@ -1043,4 +1042,301 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9E1B60-8E35-446F-9A06-EE7A6B85CD11}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>167</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>614</v>
+      </c>
+      <c r="K4">
+        <v>35.9</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>614</v>
+      </c>
+      <c r="O4">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>129</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>716</v>
+      </c>
+      <c r="K5">
+        <v>63.5</v>
+      </c>
+      <c r="M5">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>716</v>
+      </c>
+      <c r="O5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>496</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>233</v>
+      </c>
+      <c r="I6">
+        <v>64</v>
+      </c>
+      <c r="J6">
+        <v>878</v>
+      </c>
+      <c r="K6">
+        <v>117</v>
+      </c>
+      <c r="M6">
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <v>878</v>
+      </c>
+      <c r="O6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>128</v>
+      </c>
+      <c r="C7">
+        <v>904</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="G7">
+        <v>452</v>
+      </c>
+      <c r="I7">
+        <v>128</v>
+      </c>
+      <c r="J7">
+        <v>1198</v>
+      </c>
+      <c r="K7">
+        <v>226</v>
+      </c>
+      <c r="M7">
+        <v>128</v>
+      </c>
+      <c r="N7">
+        <v>1198</v>
+      </c>
+      <c r="O7">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <v>1730</v>
+      </c>
+      <c r="E8">
+        <v>256</v>
+      </c>
+      <c r="G8">
+        <v>866</v>
+      </c>
+      <c r="I8">
+        <v>256</v>
+      </c>
+      <c r="J8">
+        <v>1876</v>
+      </c>
+      <c r="K8">
+        <v>436</v>
+      </c>
+      <c r="M8">
+        <v>256</v>
+      </c>
+      <c r="N8">
+        <v>1876</v>
+      </c>
+      <c r="O8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>512</v>
+      </c>
+      <c r="C9">
+        <v>3430</v>
+      </c>
+      <c r="E9">
+        <v>512</v>
+      </c>
+      <c r="G9">
+        <v>1720</v>
+      </c>
+      <c r="I9">
+        <v>512</v>
+      </c>
+      <c r="J9">
+        <v>3186</v>
+      </c>
+      <c r="K9">
+        <v>859</v>
+      </c>
+      <c r="M9">
+        <v>512</v>
+      </c>
+      <c r="N9">
+        <v>3186</v>
+      </c>
+      <c r="O9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1024</v>
+      </c>
+      <c r="C10">
+        <v>6740</v>
+      </c>
+      <c r="E10">
+        <v>1024</v>
+      </c>
+      <c r="G10">
+        <v>3370</v>
+      </c>
+      <c r="I10">
+        <v>1024</v>
+      </c>
+      <c r="J10">
+        <v>5822</v>
+      </c>
+      <c r="K10">
+        <v>1690</v>
+      </c>
+      <c r="M10">
+        <v>1024</v>
+      </c>
+      <c r="N10">
+        <v>5822</v>
+      </c>
+      <c r="O10">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/satellite_fomo.xlsx
+++ b/satellite_fomo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honyuan\Projects\satellite_fomo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\satellite_fomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C108DA-DB5A-4DA9-9DC7-8A289BD7E7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Loop Transformer" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
   <si>
     <t>T=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,12 +66,16 @@
     <t>940MX (2G)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Xavier (2G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +88,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,12 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,31 +407,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="3" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="3" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -434,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -472,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -510,7 +521,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -548,7 +559,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>64</v>
       </c>
@@ -586,7 +597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>128</v>
       </c>
@@ -624,7 +635,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>256</v>
       </c>
@@ -662,7 +673,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>512</v>
       </c>
@@ -700,7 +711,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1024</v>
       </c>
@@ -738,12 +749,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -757,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -795,11 +806,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>614</v>
       </c>
       <c r="C15">
@@ -808,7 +819,7 @@
       <c r="E15">
         <v>16</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>614</v>
       </c>
       <c r="G15">
@@ -817,7 +828,7 @@
       <c r="I15">
         <v>16</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>614</v>
       </c>
       <c r="K15">
@@ -826,18 +837,18 @@
       <c r="M15">
         <v>16</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>614</v>
       </c>
       <c r="O15">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>716</v>
       </c>
       <c r="C16">
@@ -846,7 +857,7 @@
       <c r="E16">
         <v>32</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>716</v>
       </c>
       <c r="G16">
@@ -855,7 +866,7 @@
       <c r="I16">
         <v>32</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>716</v>
       </c>
       <c r="K16">
@@ -864,18 +875,18 @@
       <c r="M16">
         <v>32</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>716</v>
       </c>
       <c r="O16">
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>878</v>
       </c>
       <c r="C17">
@@ -884,7 +895,7 @@
       <c r="E17">
         <v>64</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>878</v>
       </c>
       <c r="G17">
@@ -893,7 +904,7 @@
       <c r="I17">
         <v>64</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>878</v>
       </c>
       <c r="K17">
@@ -902,18 +913,18 @@
       <c r="M17">
         <v>64</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
         <v>878</v>
       </c>
       <c r="O17">
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1198</v>
       </c>
       <c r="C18">
@@ -922,7 +933,7 @@
       <c r="E18">
         <v>128</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>1198</v>
       </c>
       <c r="G18">
@@ -931,7 +942,7 @@
       <c r="I18">
         <v>128</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>1198</v>
       </c>
       <c r="K18">
@@ -940,18 +951,18 @@
       <c r="M18">
         <v>128</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>1198</v>
       </c>
       <c r="O18">
         <v>2270</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>256</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1876</v>
       </c>
       <c r="C19">
@@ -960,7 +971,7 @@
       <c r="E19">
         <v>256</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>1876</v>
       </c>
       <c r="G19">
@@ -969,7 +980,7 @@
       <c r="I19">
         <v>256</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>1876</v>
       </c>
       <c r="K19">
@@ -978,63 +989,380 @@
       <c r="M19">
         <v>256</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>1876</v>
       </c>
       <c r="O19">
         <v>4540</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>512</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>3186</v>
       </c>
       <c r="E20">
         <v>512</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>3186</v>
       </c>
       <c r="I20">
         <v>512</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>3186</v>
       </c>
       <c r="M20">
         <v>512</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>3186</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1024</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>5822</v>
       </c>
       <c r="E21">
         <v>1024</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>5822</v>
       </c>
       <c r="I21">
         <v>1024</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>5822</v>
       </c>
       <c r="M21">
         <v>1024</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="2">
         <v>5822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>653</v>
+      </c>
+      <c r="C27">
+        <v>4390</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>653</v>
+      </c>
+      <c r="G27">
+        <v>2190</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>653</v>
+      </c>
+      <c r="K27">
+        <v>1100</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>653</v>
+      </c>
+      <c r="O27">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>757</v>
+      </c>
+      <c r="C28">
+        <v>8650</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>757</v>
+      </c>
+      <c r="G28">
+        <v>4340</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>757</v>
+      </c>
+      <c r="K28">
+        <v>2160</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <v>757</v>
+      </c>
+      <c r="O28">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>965</v>
+      </c>
+      <c r="C29">
+        <v>17200</v>
+      </c>
+      <c r="E29">
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <v>965</v>
+      </c>
+      <c r="G29">
+        <v>8640</v>
+      </c>
+      <c r="I29">
+        <v>64</v>
+      </c>
+      <c r="J29">
+        <v>965</v>
+      </c>
+      <c r="K29">
+        <v>4310</v>
+      </c>
+      <c r="M29">
+        <v>64</v>
+      </c>
+      <c r="N29">
+        <v>965</v>
+      </c>
+      <c r="O29">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>128</v>
+      </c>
+      <c r="B30">
+        <v>1300</v>
+      </c>
+      <c r="C30">
+        <v>34600</v>
+      </c>
+      <c r="E30">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <v>1300</v>
+      </c>
+      <c r="G30">
+        <v>17300</v>
+      </c>
+      <c r="I30">
+        <v>128</v>
+      </c>
+      <c r="J30">
+        <v>1300</v>
+      </c>
+      <c r="K30">
+        <v>8640</v>
+      </c>
+      <c r="M30">
+        <v>128</v>
+      </c>
+      <c r="N30">
+        <v>1300</v>
+      </c>
+      <c r="O30">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>256</v>
+      </c>
+      <c r="B31">
+        <v>2100</v>
+      </c>
+      <c r="C31">
+        <v>69000</v>
+      </c>
+      <c r="E31">
+        <v>256</v>
+      </c>
+      <c r="F31">
+        <v>2100</v>
+      </c>
+      <c r="G31">
+        <v>34700</v>
+      </c>
+      <c r="I31">
+        <v>256</v>
+      </c>
+      <c r="J31">
+        <v>2100</v>
+      </c>
+      <c r="K31">
+        <v>17300</v>
+      </c>
+      <c r="M31">
+        <v>256</v>
+      </c>
+      <c r="N31">
+        <v>2100</v>
+      </c>
+      <c r="O31">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>512</v>
+      </c>
+      <c r="B32">
+        <v>3600</v>
+      </c>
+      <c r="E32">
+        <v>512</v>
+      </c>
+      <c r="F32">
+        <v>3600</v>
+      </c>
+      <c r="G32">
+        <v>69000</v>
+      </c>
+      <c r="I32">
+        <v>512</v>
+      </c>
+      <c r="J32">
+        <v>3600</v>
+      </c>
+      <c r="K32">
+        <v>34700</v>
+      </c>
+      <c r="M32">
+        <v>512</v>
+      </c>
+      <c r="N32">
+        <v>3600</v>
+      </c>
+      <c r="O32">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1024</v>
+      </c>
+      <c r="B33">
+        <v>6600</v>
+      </c>
+      <c r="E33">
+        <v>1024</v>
+      </c>
+      <c r="F33">
+        <v>6600</v>
+      </c>
+      <c r="G33">
+        <v>139000</v>
+      </c>
+      <c r="I33">
+        <v>1024</v>
+      </c>
+      <c r="J33">
+        <v>6600</v>
+      </c>
+      <c r="K33">
+        <v>69000</v>
+      </c>
+      <c r="M33">
+        <v>1024</v>
+      </c>
+      <c r="N33">
+        <v>6600</v>
+      </c>
+      <c r="O33">
+        <v>27500</v>
       </c>
     </row>
   </sheetData>
@@ -1045,21 +1373,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9E1B60-8E35-446F-9A06-EE7A6B85CD11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -1143,7 +1471,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -1175,7 +1503,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>64</v>
       </c>
@@ -1207,7 +1535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>128</v>
       </c>
@@ -1239,7 +1567,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>256</v>
       </c>
@@ -1271,7 +1599,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>512</v>
       </c>
@@ -1303,7 +1631,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1024</v>
       </c>

--- a/satellite_fomo.xlsx
+++ b/satellite_fomo.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="5040" yWindow="6180" windowWidth="35940" windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Loop Transformer" sheetId="1" r:id="rId1"/>
-    <sheet name="Vanilla Transformer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
   <si>
     <t>T=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,7 +66,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Xavier (2G)</t>
+    <t>Xavier (32G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanilla Transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Looped Transformer</t>
+  </si>
+  <si>
+    <t>Looped Transformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,44 +433,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="3" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
     <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -455,35 +490,47 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -493,35 +540,47 @@
       <c r="C4">
         <v>167</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>614</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>67.900000000000006</v>
       </c>
       <c r="I4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="K4">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>614</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>35.9</v>
       </c>
-      <c r="M4">
+      <c r="N4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P4">
         <v>16</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>614</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0.36049999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -531,35 +590,47 @@
       <c r="C5">
         <v>255</v>
       </c>
-      <c r="E5">
+      <c r="D5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F5">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>716</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>129</v>
       </c>
       <c r="I5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K5">
         <v>32</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>716</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>63.5</v>
       </c>
-      <c r="M5">
+      <c r="N5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P5">
         <v>32</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>716</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0.49359999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>64</v>
       </c>
@@ -569,35 +640,47 @@
       <c r="C6">
         <v>496</v>
       </c>
-      <c r="E6">
+      <c r="D6">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F6">
         <v>64</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>878</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>233</v>
       </c>
       <c r="I6">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K6">
         <v>64</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>878</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>117</v>
       </c>
-      <c r="M6">
+      <c r="N6">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="P6">
         <v>64</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>878</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0.68640000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>128</v>
       </c>
@@ -607,35 +690,47 @@
       <c r="C7">
         <v>904</v>
       </c>
-      <c r="E7">
+      <c r="D7">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F7">
         <v>128</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1198</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>452</v>
       </c>
       <c r="I7">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K7">
         <v>128</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>1198</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>226</v>
       </c>
-      <c r="M7">
+      <c r="N7">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="P7">
         <v>128</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>1198</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>90.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0.57450000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>256</v>
       </c>
@@ -645,35 +740,47 @@
       <c r="C8">
         <v>1730</v>
       </c>
-      <c r="E8">
+      <c r="D8">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="F8">
         <v>256</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1876</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>866</v>
       </c>
       <c r="I8">
+        <v>1.84E-2</v>
+      </c>
+      <c r="K8">
         <v>256</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>1876</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>436</v>
       </c>
-      <c r="M8">
+      <c r="N8">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="P8">
         <v>256</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>1876</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>174</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>512</v>
       </c>
@@ -683,35 +790,47 @@
       <c r="C9">
         <v>3430</v>
       </c>
-      <c r="E9">
+      <c r="D9">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F9">
         <v>512</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3186</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1720</v>
       </c>
       <c r="I9">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="K9">
         <v>512</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>3186</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>859</v>
       </c>
-      <c r="M9">
+      <c r="N9">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="P9">
         <v>512</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>3186</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>290</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0.50439999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1024</v>
       </c>
@@ -721,54 +840,69 @@
       <c r="C10">
         <v>6740</v>
       </c>
-      <c r="E10">
+      <c r="D10">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="F10">
         <v>1024</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5822</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3370</v>
       </c>
       <c r="I10">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="K10">
         <v>1024</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>5822</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>1690</v>
       </c>
-      <c r="M10">
+      <c r="N10">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="P10">
         <v>1024</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>5822</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>566</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0.51759999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>6</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -778,35 +912,47 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>7</v>
       </c>
       <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
         <v>2</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>7</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
         <v>2</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Q14" t="s">
         <v>3</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -816,35 +962,47 @@
       <c r="C15">
         <v>6770</v>
       </c>
-      <c r="E15">
+      <c r="D15">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>614</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3340</v>
       </c>
       <c r="I15">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="K15">
         <v>16</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>614</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>1440</v>
       </c>
-      <c r="M15">
+      <c r="N15">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P15">
         <v>16</v>
       </c>
-      <c r="N15" s="2">
+      <c r="Q15" s="2">
         <v>614</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>295</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0.36049999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
@@ -854,35 +1012,47 @@
       <c r="C16">
         <v>13200</v>
       </c>
-      <c r="E16">
+      <c r="D16">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F16">
         <v>32</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>716</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6550</v>
       </c>
       <c r="I16">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K16">
         <v>32</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <v>716</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>2810</v>
       </c>
-      <c r="M16">
+      <c r="N16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P16">
         <v>32</v>
       </c>
-      <c r="N16" s="2">
+      <c r="Q16" s="2">
         <v>716</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>566</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>0.49359999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
@@ -892,35 +1062,47 @@
       <c r="C17">
         <v>26200</v>
       </c>
-      <c r="E17">
+      <c r="D17">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F17">
         <v>64</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>878</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13100</v>
       </c>
       <c r="I17">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K17">
         <v>64</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>878</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>5600</v>
       </c>
-      <c r="M17">
+      <c r="N17">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="P17">
         <v>64</v>
       </c>
-      <c r="N17" s="2">
+      <c r="Q17" s="2">
         <v>878</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>878</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>0.68640000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
@@ -930,35 +1112,47 @@
       <c r="C18">
         <v>52700</v>
       </c>
-      <c r="E18">
+      <c r="D18">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F18">
         <v>128</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>1198</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>26200</v>
       </c>
       <c r="I18">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K18">
         <v>128</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>1198</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>11300</v>
       </c>
-      <c r="M18">
+      <c r="N18">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="P18">
         <v>128</v>
       </c>
-      <c r="N18" s="2">
+      <c r="Q18" s="2">
         <v>1198</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>2270</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>0.57450000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>256</v>
       </c>
@@ -968,106 +1162,121 @@
       <c r="C19">
         <v>105000</v>
       </c>
-      <c r="E19">
+      <c r="D19">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="F19">
         <v>256</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>1876</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>52700</v>
       </c>
       <c r="I19">
+        <v>1.84E-2</v>
+      </c>
+      <c r="K19">
         <v>256</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>1876</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>22700</v>
       </c>
-      <c r="M19">
+      <c r="N19">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="P19">
         <v>256</v>
       </c>
-      <c r="N19" s="2">
+      <c r="Q19" s="2">
         <v>1876</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>4540</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>512</v>
       </c>
       <c r="B20" s="2">
         <v>3186</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>512</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>3186</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>512</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>3186</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>512</v>
       </c>
-      <c r="N20" s="2">
+      <c r="Q20" s="2">
         <v>3186</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1024</v>
       </c>
       <c r="B21" s="2">
         <v>5822</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1024</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>5822</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>1024</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>5822</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>1024</v>
       </c>
-      <c r="N21" s="2">
+      <c r="Q21" s="2">
         <v>5822</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>6</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1077,35 +1286,47 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>3</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>7</v>
       </c>
       <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>3</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>7</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" t="s">
         <v>2</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
         <v>3</v>
       </c>
-      <c r="O26" t="s">
+      <c r="R26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
@@ -1115,35 +1336,47 @@
       <c r="C27">
         <v>4390</v>
       </c>
-      <c r="E27">
+      <c r="D27">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F27">
         <v>16</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>653</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2190</v>
       </c>
       <c r="I27">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="K27">
         <v>16</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>653</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>1100</v>
       </c>
-      <c r="M27">
+      <c r="N27">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P27">
         <v>16</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>653</v>
       </c>
-      <c r="O27">
+      <c r="R27" s="3">
         <v>432</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>0.36049999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1153,35 +1386,47 @@
       <c r="C28">
         <v>8650</v>
       </c>
-      <c r="E28">
+      <c r="D28">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F28">
         <v>32</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>757</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4340</v>
       </c>
       <c r="I28">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K28">
         <v>32</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>757</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>2160</v>
       </c>
-      <c r="M28">
+      <c r="N28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P28">
         <v>32</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>757</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>867</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>0.49359999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>64</v>
       </c>
@@ -1191,35 +1436,47 @@
       <c r="C29">
         <v>17200</v>
       </c>
-      <c r="E29">
+      <c r="D29">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F29">
         <v>64</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>965</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>8640</v>
       </c>
       <c r="I29">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K29">
         <v>64</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>965</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>4310</v>
       </c>
-      <c r="M29">
+      <c r="N29">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="P29">
         <v>64</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>965</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>1720</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>0.68640000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>128</v>
       </c>
@@ -1229,35 +1486,47 @@
       <c r="C30">
         <v>34600</v>
       </c>
-      <c r="E30">
+      <c r="D30">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F30">
         <v>128</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1300</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>17300</v>
       </c>
       <c r="I30">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K30">
         <v>128</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>1300</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>8640</v>
       </c>
-      <c r="M30">
+      <c r="N30">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="P30">
         <v>128</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>1300</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>3460</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>0.57450000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>256</v>
       </c>
@@ -1267,102 +1536,269 @@
       <c r="C31">
         <v>69000</v>
       </c>
-      <c r="E31">
+      <c r="D31">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="F31">
         <v>256</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2100</v>
       </c>
-      <c r="G31">
+      <c r="H31" s="3">
         <v>34700</v>
       </c>
       <c r="I31">
+        <v>1.84E-2</v>
+      </c>
+      <c r="K31">
         <v>256</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>2100</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>17300</v>
       </c>
-      <c r="M31">
+      <c r="N31">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="P31">
         <v>256</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>2100</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>6920</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>512</v>
       </c>
       <c r="B32">
         <v>3600</v>
       </c>
-      <c r="E32">
+      <c r="C32">
+        <v>138000</v>
+      </c>
+      <c r="D32">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F32">
         <v>512</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3600</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>69000</v>
       </c>
       <c r="I32">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="K32">
         <v>512</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>3600</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>34700</v>
       </c>
-      <c r="M32">
+      <c r="N32">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="P32">
         <v>512</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>3600</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>13700</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>0.50439999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1024</v>
       </c>
       <c r="B33">
         <v>6600</v>
       </c>
-      <c r="E33">
+      <c r="C33">
+        <v>258000</v>
+      </c>
+      <c r="D33">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="F33">
         <v>1024</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>6600</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>139000</v>
       </c>
       <c r="I33">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="K33">
         <v>1024</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>6600</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>69000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="P33">
         <v>1024</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>6600</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>27500</v>
+      </c>
+      <c r="S33">
+        <v>0.51759999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>687</v>
+      </c>
+      <c r="C39">
+        <v>226</v>
+      </c>
+      <c r="D39">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>793</v>
+      </c>
+      <c r="C40">
+        <v>438</v>
+      </c>
+      <c r="D40">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>64</v>
+      </c>
+      <c r="B41">
+        <v>973</v>
+      </c>
+      <c r="C41">
+        <v>871</v>
+      </c>
+      <c r="D41">
+        <v>0.24210000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>128</v>
+      </c>
+      <c r="B42">
+        <v>1300</v>
+      </c>
+      <c r="C42">
+        <v>60740</v>
+      </c>
+      <c r="D42">
+        <v>0.1555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>256</v>
+      </c>
+      <c r="B43">
+        <v>2000</v>
+      </c>
+      <c r="C43">
+        <v>228000</v>
+      </c>
+      <c r="D43">
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>512</v>
+      </c>
+      <c r="B44">
+        <v>3400</v>
+      </c>
+      <c r="C44">
+        <v>420020</v>
+      </c>
+      <c r="D44">
+        <v>8.6599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1024</v>
+      </c>
+      <c r="B45">
+        <v>6300</v>
+      </c>
+      <c r="C45">
+        <v>840000</v>
+      </c>
+      <c r="D45">
+        <v>5.8700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1370,301 +1806,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>167</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>614</v>
-      </c>
-      <c r="K4">
-        <v>35.9</v>
-      </c>
-      <c r="M4">
-        <v>16</v>
-      </c>
-      <c r="N4">
-        <v>614</v>
-      </c>
-      <c r="O4">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>255</v>
-      </c>
-      <c r="E5">
-        <v>32</v>
-      </c>
-      <c r="G5">
-        <v>129</v>
-      </c>
-      <c r="I5">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>716</v>
-      </c>
-      <c r="K5">
-        <v>63.5</v>
-      </c>
-      <c r="M5">
-        <v>32</v>
-      </c>
-      <c r="N5">
-        <v>716</v>
-      </c>
-      <c r="O5">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>496</v>
-      </c>
-      <c r="E6">
-        <v>64</v>
-      </c>
-      <c r="G6">
-        <v>233</v>
-      </c>
-      <c r="I6">
-        <v>64</v>
-      </c>
-      <c r="J6">
-        <v>878</v>
-      </c>
-      <c r="K6">
-        <v>117</v>
-      </c>
-      <c r="M6">
-        <v>64</v>
-      </c>
-      <c r="N6">
-        <v>878</v>
-      </c>
-      <c r="O6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>128</v>
-      </c>
-      <c r="C7">
-        <v>904</v>
-      </c>
-      <c r="E7">
-        <v>128</v>
-      </c>
-      <c r="G7">
-        <v>452</v>
-      </c>
-      <c r="I7">
-        <v>128</v>
-      </c>
-      <c r="J7">
-        <v>1198</v>
-      </c>
-      <c r="K7">
-        <v>226</v>
-      </c>
-      <c r="M7">
-        <v>128</v>
-      </c>
-      <c r="N7">
-        <v>1198</v>
-      </c>
-      <c r="O7">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>256</v>
-      </c>
-      <c r="C8">
-        <v>1730</v>
-      </c>
-      <c r="E8">
-        <v>256</v>
-      </c>
-      <c r="G8">
-        <v>866</v>
-      </c>
-      <c r="I8">
-        <v>256</v>
-      </c>
-      <c r="J8">
-        <v>1876</v>
-      </c>
-      <c r="K8">
-        <v>436</v>
-      </c>
-      <c r="M8">
-        <v>256</v>
-      </c>
-      <c r="N8">
-        <v>1876</v>
-      </c>
-      <c r="O8">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>512</v>
-      </c>
-      <c r="C9">
-        <v>3430</v>
-      </c>
-      <c r="E9">
-        <v>512</v>
-      </c>
-      <c r="G9">
-        <v>1720</v>
-      </c>
-      <c r="I9">
-        <v>512</v>
-      </c>
-      <c r="J9">
-        <v>3186</v>
-      </c>
-      <c r="K9">
-        <v>859</v>
-      </c>
-      <c r="M9">
-        <v>512</v>
-      </c>
-      <c r="N9">
-        <v>3186</v>
-      </c>
-      <c r="O9">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1024</v>
-      </c>
-      <c r="C10">
-        <v>6740</v>
-      </c>
-      <c r="E10">
-        <v>1024</v>
-      </c>
-      <c r="G10">
-        <v>3370</v>
-      </c>
-      <c r="I10">
-        <v>1024</v>
-      </c>
-      <c r="J10">
-        <v>5822</v>
-      </c>
-      <c r="K10">
-        <v>1690</v>
-      </c>
-      <c r="M10">
-        <v>1024</v>
-      </c>
-      <c r="N10">
-        <v>5822</v>
-      </c>
-      <c r="O10">
-        <v>566</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/satellite_fomo.xlsx
+++ b/satellite_fomo.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\satellite_fomo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blcto/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEACC6C6-A4E2-0944-9CCD-A4102A019289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="6180" windowWidth="35940" windowHeight="17820"/>
+    <workbookView xWindow="5040" yWindow="6180" windowWidth="35940" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loop Transformer" sheetId="1" r:id="rId1"/>
+    <sheet name="Vanilla Transformer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
   <si>
     <t>T=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,23 +79,12 @@
     <t>loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Vanilla Transformer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Looped Transformer</t>
-  </si>
-  <si>
-    <t>Looped Transformer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +117,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,11 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,55 +416,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -490,47 +465,35 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="E3" t="s">
+        <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>16</v>
       </c>
@@ -543,44 +506,44 @@
       <c r="D4">
         <v>1.1999999999999999E-3</v>
       </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
       <c r="F4">
+        <v>614</v>
+      </c>
+      <c r="G4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>614</v>
       </c>
-      <c r="H4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="I4">
-        <v>1.1000000000000001E-3</v>
-      </c>
       <c r="K4">
+        <v>35.9</v>
+      </c>
+      <c r="L4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M4">
         <v>16</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>614</v>
       </c>
-      <c r="M4">
-        <v>35.9</v>
-      </c>
-      <c r="N4">
-        <v>6.9999999999999999E-4</v>
+      <c r="O4">
+        <v>14.2</v>
       </c>
       <c r="P4">
-        <v>16</v>
-      </c>
-      <c r="Q4">
-        <v>614</v>
-      </c>
-      <c r="R4">
-        <v>14.2</v>
-      </c>
-      <c r="S4">
         <v>0.36049999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>32</v>
       </c>
@@ -593,44 +556,44 @@
       <c r="D5">
         <v>8.0000000000000004E-4</v>
       </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
       <c r="F5">
+        <v>716</v>
+      </c>
+      <c r="G5">
+        <v>129</v>
+      </c>
+      <c r="H5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I5">
         <v>32</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>716</v>
       </c>
-      <c r="H5">
-        <v>129</v>
-      </c>
-      <c r="I5">
-        <v>6.9999999999999999E-4</v>
-      </c>
       <c r="K5">
+        <v>63.5</v>
+      </c>
+      <c r="L5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M5">
         <v>32</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>716</v>
       </c>
-      <c r="M5">
-        <v>63.5</v>
-      </c>
-      <c r="N5">
-        <v>5.0000000000000001E-4</v>
+      <c r="O5">
+        <v>25.5</v>
       </c>
       <c r="P5">
-        <v>32</v>
-      </c>
-      <c r="Q5">
-        <v>716</v>
-      </c>
-      <c r="R5">
-        <v>25.5</v>
-      </c>
-      <c r="S5">
         <v>0.49359999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>64</v>
       </c>
@@ -643,44 +606,44 @@
       <c r="D6">
         <v>1.2999999999999999E-3</v>
       </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
       <c r="F6">
+        <v>878</v>
+      </c>
+      <c r="G6">
+        <v>233</v>
+      </c>
+      <c r="H6">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I6">
         <v>64</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>878</v>
       </c>
-      <c r="H6">
-        <v>233</v>
-      </c>
-      <c r="I6">
-        <v>1.1999999999999999E-3</v>
-      </c>
       <c r="K6">
+        <v>117</v>
+      </c>
+      <c r="L6">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M6">
         <v>64</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>878</v>
       </c>
-      <c r="M6">
-        <v>117</v>
-      </c>
-      <c r="N6">
-        <v>3.7000000000000002E-3</v>
+      <c r="O6">
+        <v>47</v>
       </c>
       <c r="P6">
-        <v>64</v>
-      </c>
-      <c r="Q6">
-        <v>878</v>
-      </c>
-      <c r="R6">
-        <v>47</v>
-      </c>
-      <c r="S6">
         <v>0.68640000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>128</v>
       </c>
@@ -693,44 +656,44 @@
       <c r="D7">
         <v>2.3699999999999999E-2</v>
       </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
       <c r="F7">
+        <v>1198</v>
+      </c>
+      <c r="G7">
+        <v>452</v>
+      </c>
+      <c r="H7">
+        <v>2.53E-2</v>
+      </c>
+      <c r="I7">
         <v>128</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>1198</v>
       </c>
-      <c r="H7">
-        <v>452</v>
-      </c>
-      <c r="I7">
-        <v>2.53E-2</v>
-      </c>
       <c r="K7">
+        <v>226</v>
+      </c>
+      <c r="L7">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="M7">
         <v>128</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>1198</v>
       </c>
-      <c r="M7">
-        <v>226</v>
-      </c>
-      <c r="N7">
-        <v>3.1300000000000001E-2</v>
+      <c r="O7">
+        <v>90.6</v>
       </c>
       <c r="P7">
-        <v>128</v>
-      </c>
-      <c r="Q7">
-        <v>1198</v>
-      </c>
-      <c r="R7">
-        <v>90.6</v>
-      </c>
-      <c r="S7">
         <v>0.57450000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>256</v>
       </c>
@@ -743,44 +706,44 @@
       <c r="D8">
         <v>1.6899999999999998E-2</v>
       </c>
+      <c r="E8">
+        <v>256</v>
+      </c>
       <c r="F8">
+        <v>1876</v>
+      </c>
+      <c r="G8">
+        <v>866</v>
+      </c>
+      <c r="H8">
+        <v>1.84E-2</v>
+      </c>
+      <c r="I8">
         <v>256</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>1876</v>
       </c>
-      <c r="H8">
-        <v>866</v>
-      </c>
-      <c r="I8">
-        <v>1.84E-2</v>
-      </c>
       <c r="K8">
+        <v>436</v>
+      </c>
+      <c r="L8">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="M8">
         <v>256</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1876</v>
       </c>
-      <c r="M8">
-        <v>436</v>
-      </c>
-      <c r="N8">
-        <v>2.2800000000000001E-2</v>
+      <c r="O8">
+        <v>174</v>
       </c>
       <c r="P8">
-        <v>256</v>
-      </c>
-      <c r="Q8">
-        <v>1876</v>
-      </c>
-      <c r="R8">
-        <v>174</v>
-      </c>
-      <c r="S8">
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>512</v>
       </c>
@@ -793,44 +756,44 @@
       <c r="D9">
         <v>5.28E-2</v>
       </c>
+      <c r="E9">
+        <v>512</v>
+      </c>
       <c r="F9">
+        <v>3186</v>
+      </c>
+      <c r="G9">
+        <v>1720</v>
+      </c>
+      <c r="H9">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="I9">
         <v>512</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>3186</v>
       </c>
-      <c r="H9">
-        <v>1720</v>
-      </c>
-      <c r="I9">
-        <v>5.3100000000000001E-2</v>
-      </c>
       <c r="K9">
+        <v>859</v>
+      </c>
+      <c r="L9">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="M9">
         <v>512</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>3186</v>
       </c>
-      <c r="M9">
-        <v>859</v>
-      </c>
-      <c r="N9">
-        <v>4.8899999999999999E-2</v>
+      <c r="O9">
+        <v>290</v>
       </c>
       <c r="P9">
-        <v>512</v>
-      </c>
-      <c r="Q9">
-        <v>3186</v>
-      </c>
-      <c r="R9">
-        <v>290</v>
-      </c>
-      <c r="S9">
         <v>0.50439999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1024</v>
       </c>
@@ -843,66 +806,63 @@
       <c r="D10">
         <v>3.7400000000000003E-2</v>
       </c>
+      <c r="E10">
+        <v>1024</v>
+      </c>
       <c r="F10">
+        <v>5822</v>
+      </c>
+      <c r="G10">
+        <v>3370</v>
+      </c>
+      <c r="H10">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="I10">
         <v>1024</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>5822</v>
       </c>
-      <c r="H10">
-        <v>3370</v>
-      </c>
-      <c r="I10">
-        <v>3.7900000000000003E-2</v>
-      </c>
       <c r="K10">
+        <v>1690</v>
+      </c>
+      <c r="L10">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="M10">
         <v>1024</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>5822</v>
       </c>
-      <c r="M10">
-        <v>1690</v>
-      </c>
-      <c r="N10">
-        <v>3.9600000000000003E-2</v>
+      <c r="O10">
+        <v>566</v>
       </c>
       <c r="P10">
-        <v>1024</v>
-      </c>
-      <c r="Q10">
-        <v>5822</v>
-      </c>
-      <c r="R10">
-        <v>566</v>
-      </c>
-      <c r="S10">
         <v>0.51759999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I13" t="s">
         <v>6</v>
       </c>
-      <c r="P13" t="s">
+      <c r="M13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -912,47 +872,35 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
+      <c r="E14" t="s">
+        <v>2</v>
       </c>
       <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>3</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>7</v>
       </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>3</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>7</v>
       </c>
-      <c r="N14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>16</v>
       </c>
@@ -962,47 +910,35 @@
       <c r="C15">
         <v>6770</v>
       </c>
-      <c r="D15">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <v>16</v>
       </c>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>614</v>
       </c>
-      <c r="H15">
+      <c r="G15">
         <v>3340</v>
       </c>
       <c r="I15">
-        <v>1.1000000000000001E-3</v>
+        <v>16</v>
+      </c>
+      <c r="J15" s="2">
+        <v>614</v>
       </c>
       <c r="K15">
+        <v>1440</v>
+      </c>
+      <c r="M15">
         <v>16</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>614</v>
       </c>
-      <c r="M15">
-        <v>1440</v>
-      </c>
-      <c r="N15">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="P15">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>614</v>
-      </c>
-      <c r="R15">
+      <c r="O15">
         <v>295</v>
       </c>
-      <c r="S15">
-        <v>0.36049999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>32</v>
       </c>
@@ -1012,47 +948,35 @@
       <c r="C16">
         <v>13200</v>
       </c>
-      <c r="D16">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
         <v>32</v>
       </c>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>716</v>
       </c>
-      <c r="H16">
+      <c r="G16">
         <v>6550</v>
       </c>
       <c r="I16">
-        <v>6.9999999999999999E-4</v>
+        <v>32</v>
+      </c>
+      <c r="J16" s="2">
+        <v>716</v>
       </c>
       <c r="K16">
+        <v>2810</v>
+      </c>
+      <c r="M16">
         <v>32</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>716</v>
       </c>
-      <c r="M16">
-        <v>2810</v>
-      </c>
-      <c r="N16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P16">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>716</v>
-      </c>
-      <c r="R16">
+      <c r="O16">
         <v>566</v>
       </c>
-      <c r="S16">
-        <v>0.49359999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>64</v>
       </c>
@@ -1062,47 +986,35 @@
       <c r="C17">
         <v>26200</v>
       </c>
-      <c r="D17">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <v>64</v>
       </c>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>878</v>
       </c>
-      <c r="H17">
+      <c r="G17">
         <v>13100</v>
       </c>
       <c r="I17">
-        <v>1.1999999999999999E-3</v>
+        <v>64</v>
+      </c>
+      <c r="J17" s="2">
+        <v>878</v>
       </c>
       <c r="K17">
+        <v>5600</v>
+      </c>
+      <c r="M17">
         <v>64</v>
       </c>
-      <c r="L17" s="2">
+      <c r="N17" s="2">
         <v>878</v>
       </c>
-      <c r="M17">
-        <v>5600</v>
-      </c>
-      <c r="N17">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="P17">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="2">
+      <c r="O17">
         <v>878</v>
       </c>
-      <c r="R17">
-        <v>878</v>
-      </c>
-      <c r="S17">
-        <v>0.68640000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>128</v>
       </c>
@@ -1112,47 +1024,35 @@
       <c r="C18">
         <v>52700</v>
       </c>
-      <c r="D18">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
         <v>128</v>
       </c>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>1198</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <v>26200</v>
       </c>
       <c r="I18">
-        <v>2.53E-2</v>
+        <v>128</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1198</v>
       </c>
       <c r="K18">
+        <v>11300</v>
+      </c>
+      <c r="M18">
         <v>128</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>1198</v>
       </c>
-      <c r="M18">
-        <v>11300</v>
-      </c>
-      <c r="N18">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="P18">
-        <v>128</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1198</v>
-      </c>
-      <c r="R18">
+      <c r="O18">
         <v>2270</v>
       </c>
-      <c r="S18">
-        <v>0.57450000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>256</v>
       </c>
@@ -1162,107 +1062,92 @@
       <c r="C19">
         <v>105000</v>
       </c>
-      <c r="D19">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>256</v>
       </c>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>1876</v>
       </c>
-      <c r="H19">
+      <c r="G19">
         <v>52700</v>
       </c>
       <c r="I19">
-        <v>1.84E-2</v>
+        <v>256</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1876</v>
       </c>
       <c r="K19">
+        <v>22700</v>
+      </c>
+      <c r="M19">
         <v>256</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <v>1876</v>
       </c>
-      <c r="M19">
-        <v>22700</v>
-      </c>
-      <c r="N19">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="P19">
-        <v>256</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1876</v>
-      </c>
-      <c r="R19">
+      <c r="O19">
         <v>4540</v>
       </c>
-      <c r="S19">
-        <v>0.52170000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>512</v>
       </c>
       <c r="B20" s="2">
         <v>3186</v>
       </c>
-      <c r="F20">
+      <c r="E20">
         <v>512</v>
       </c>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>3186</v>
       </c>
-      <c r="K20">
+      <c r="I20">
         <v>512</v>
       </c>
-      <c r="L20" s="2">
+      <c r="J20" s="2">
         <v>3186</v>
       </c>
-      <c r="P20">
+      <c r="M20">
         <v>512</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="N20" s="2">
         <v>3186</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1024</v>
       </c>
       <c r="B21" s="2">
         <v>5822</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>1024</v>
       </c>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>5822</v>
       </c>
-      <c r="K21">
+      <c r="I21">
         <v>1024</v>
       </c>
-      <c r="L21" s="2">
+      <c r="J21" s="2">
         <v>5822</v>
       </c>
-      <c r="P21">
+      <c r="M21">
         <v>1024</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="N21" s="2">
         <v>5822</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>16</v>
       </c>
@@ -1369,14 +1254,14 @@
       <c r="Q27">
         <v>653</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27">
         <v>432</v>
       </c>
       <c r="S27">
         <v>0.36049999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1426,7 +1311,7 @@
         <v>0.49359999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>64</v>
       </c>
@@ -1476,7 +1361,7 @@
         <v>0.68640000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>128</v>
       </c>
@@ -1526,7 +1411,7 @@
         <v>0.57450000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>256</v>
       </c>
@@ -1545,7 +1430,7 @@
       <c r="G31">
         <v>2100</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
         <v>34700</v>
       </c>
       <c r="I31">
@@ -1576,7 +1461,7 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>512</v>
       </c>
@@ -1626,7 +1511,7 @@
         <v>0.50439999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1024</v>
       </c>
@@ -1676,20 +1561,17 @@
         <v>0.51759999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1699,11 +1581,8 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1713,11 +1592,8 @@
       <c r="C39">
         <v>226</v>
       </c>
-      <c r="D39">
-        <v>8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>32</v>
       </c>
@@ -1727,11 +1603,8 @@
       <c r="C40">
         <v>438</v>
       </c>
-      <c r="D40">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>64</v>
       </c>
@@ -1741,11 +1614,8 @@
       <c r="C41">
         <v>871</v>
       </c>
-      <c r="D41">
-        <v>0.24210000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>128</v>
       </c>
@@ -1755,11 +1625,8 @@
       <c r="C42">
         <v>60740</v>
       </c>
-      <c r="D42">
-        <v>0.1555</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>256</v>
       </c>
@@ -1769,11 +1636,8 @@
       <c r="C43">
         <v>228000</v>
       </c>
-      <c r="D43">
-        <v>9.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>512</v>
       </c>
@@ -1783,11 +1647,8 @@
       <c r="C44">
         <v>420020</v>
       </c>
-      <c r="D44">
-        <v>8.6599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>1024</v>
       </c>
@@ -1796,9 +1657,6 @@
       </c>
       <c r="C45">
         <v>840000</v>
-      </c>
-      <c r="D45">
-        <v>5.8700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1806,4 +1664,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="192" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/satellite_fomo.xlsx
+++ b/satellite_fomo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>T=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,34 @@
   </si>
   <si>
     <t>Looped Transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>432*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>867*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;10404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;8640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nano(4G)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +154,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
         <v>2</v>
@@ -1299,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
         <v>2</v>
@@ -1311,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P26" t="s">
         <v>2</v>
@@ -1323,7 +1345,7 @@
         <v>7</v>
       </c>
       <c r="S26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1363,16 +1385,16 @@
       <c r="N27">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="1">
         <v>16</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>653</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="1">
         <v>432</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>0.36049999999999999</v>
       </c>
     </row>
@@ -1539,16 +1561,16 @@
       <c r="D31">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>256</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>2100</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <v>34700</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>1.84E-2</v>
       </c>
       <c r="K31">
@@ -1676,6 +1698,11 @@
         <v>0.51759999999999995</v>
       </c>
     </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
@@ -1688,6 +1715,15 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
+      <c r="I37" s="1">
+        <v>34700</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1700,7 +1736,16 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="I38" s="1">
+        <v>34700</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -1799,6 +1844,95 @@
       </c>
       <c r="D45">
         <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P50" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>516</v>
+      </c>
+      <c r="R50" s="3">
+        <v>3230</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0.36049999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>32</v>
+      </c>
+      <c r="S51">
+        <v>0.49359999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>64</v>
+      </c>
+      <c r="S52">
+        <v>0.68640000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>128</v>
+      </c>
+      <c r="S53">
+        <v>0.57450000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>256</v>
+      </c>
+      <c r="S54">
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>512</v>
+      </c>
+      <c r="S55">
+        <v>0.50439999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>1024</v>
+      </c>
+      <c r="S56">
+        <v>0.51759999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/satellite_fomo.xlsx
+++ b/satellite_fomo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>T=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1373,6 +1373,10 @@
       <c r="I27">
         <v>1.1000000000000001E-3</v>
       </c>
+      <c r="J27">
+        <f>H27/1000</f>
+        <v>2.19</v>
+      </c>
       <c r="K27">
         <v>16</v>
       </c>
@@ -1423,6 +1427,10 @@
       <c r="I28">
         <v>6.9999999999999999E-4</v>
       </c>
+      <c r="J28">
+        <f t="shared" ref="J28:J33" si="0">H28/1000</f>
+        <v>4.34</v>
+      </c>
       <c r="K28">
         <v>32</v>
       </c>
@@ -1473,6 +1481,10 @@
       <c r="I29">
         <v>1.1999999999999999E-3</v>
       </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>8.64</v>
+      </c>
       <c r="K29">
         <v>64</v>
       </c>
@@ -1523,6 +1535,10 @@
       <c r="I30">
         <v>2.53E-2</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>17.3</v>
+      </c>
       <c r="K30">
         <v>128</v>
       </c>
@@ -1573,6 +1589,10 @@
       <c r="I31" s="1">
         <v>1.84E-2</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>34.700000000000003</v>
+      </c>
       <c r="K31">
         <v>256</v>
       </c>
@@ -1623,6 +1643,10 @@
       <c r="I32">
         <v>5.3100000000000001E-2</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
       <c r="K32">
         <v>512</v>
       </c>
@@ -1673,6 +1697,10 @@
       <c r="I33">
         <v>3.7900000000000003E-2</v>
       </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
       <c r="K33">
         <v>1024</v>
       </c>
@@ -1710,6 +1738,9 @@
       <c r="B36" t="s">
         <v>13</v>
       </c>
+      <c r="M36">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1724,6 +1755,9 @@
       <c r="K37" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="M37">
+        <v>4.34</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1747,6 +1781,9 @@
       <c r="K38" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="M38">
+        <v>8.64</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1761,6 +1798,9 @@
       <c r="D39">
         <v>8.2000000000000007E-3</v>
       </c>
+      <c r="M39">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1775,6 +1815,9 @@
       <c r="D40">
         <v>4.5999999999999999E-3</v>
       </c>
+      <c r="M40">
+        <v>34.700000000000003</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1789,6 +1832,9 @@
       <c r="D41">
         <v>0.24210000000000001</v>
       </c>
+      <c r="M41">
+        <v>69</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1803,6 +1849,15 @@
       <c r="D42">
         <v>0.1555</v>
       </c>
+      <c r="I42">
+        <v>0.79</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>139</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1817,6 +1872,12 @@
       <c r="D43">
         <v>9.1499999999999998E-2</v>
       </c>
+      <c r="I43">
+        <v>9.48</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1855,11 +1916,26 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
       <c r="P48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
       <c r="P49" t="s">
         <v>2</v>
       </c>
@@ -1873,7 +1949,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>564</v>
+      </c>
+      <c r="H50">
+        <v>11600</v>
+      </c>
+      <c r="I50">
+        <v>1.1000000000000001E-3</v>
+      </c>
       <c r="P50" s="3">
         <v>16</v>
       </c>
@@ -1887,7 +1975,19 @@
         <v>0.36049999999999999</v>
       </c>
     </row>
-    <row r="51" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>32</v>
+      </c>
+      <c r="G51">
+        <v>620</v>
+      </c>
+      <c r="H51">
+        <v>22400</v>
+      </c>
+      <c r="I51">
+        <v>6.9999999999999999E-4</v>
+      </c>
       <c r="P51">
         <v>32</v>
       </c>
@@ -1895,7 +1995,19 @@
         <v>0.49359999999999998</v>
       </c>
     </row>
-    <row r="52" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>64</v>
+      </c>
+      <c r="G52">
+        <v>830</v>
+      </c>
+      <c r="H52">
+        <v>54500</v>
+      </c>
+      <c r="I52">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="P52">
         <v>64</v>
       </c>
@@ -1903,7 +2015,19 @@
         <v>0.68640000000000001</v>
       </c>
     </row>
-    <row r="53" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>128</v>
+      </c>
+      <c r="G53">
+        <v>1200</v>
+      </c>
+      <c r="H53">
+        <v>82000</v>
+      </c>
+      <c r="I53">
+        <v>2.53E-2</v>
+      </c>
       <c r="P53">
         <v>128</v>
       </c>
@@ -1911,7 +2035,19 @@
         <v>0.57450000000000001</v>
       </c>
     </row>
-    <row r="54" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
+        <v>256</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>313000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1.84E-2</v>
+      </c>
       <c r="P54">
         <v>256</v>
       </c>
@@ -1919,7 +2055,16 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="55" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>512</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I55">
+        <v>5.3100000000000001E-2</v>
+      </c>
       <c r="P55">
         <v>512</v>
       </c>
@@ -1927,7 +2072,16 @@
         <v>0.50439999999999996</v>
       </c>
     </row>
-    <row r="56" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1024</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I56">
+        <v>3.7900000000000003E-2</v>
+      </c>
       <c r="P56">
         <v>1024</v>
       </c>

--- a/satellite_fomo.xlsx
+++ b/satellite_fomo.xlsx
@@ -13,6 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Loop Transformer" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Xavier" sheetId="2" r:id="rId3"/>
+    <sheet name="不分开迭代" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="47">
   <si>
     <t>T=200</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +117,102 @@
   </si>
   <si>
     <t>Nano(4G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchsize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sate_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_lat(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp_lat(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xavier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini batch size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Looped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batchsize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,11 +275,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42:J43"/>
+    <sheetView tabSelected="1" topLeftCell="H15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1180,7 @@
         <v>0.49359999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
@@ -1124,7 +1230,7 @@
         <v>0.68640000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
@@ -1174,7 +1280,7 @@
         <v>0.57450000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>256</v>
       </c>
@@ -1224,7 +1330,7 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>512</v>
       </c>
@@ -1250,7 +1356,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1024</v>
       </c>
@@ -1276,7 +1382,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +1403,11 @@
       <c r="P25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1347,8 +1456,20 @@
       <c r="S26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
@@ -1373,10 +1494,6 @@
       <c r="I27">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J27">
-        <f>H27/1000</f>
-        <v>2.19</v>
-      </c>
       <c r="K27">
         <v>16</v>
       </c>
@@ -1401,8 +1518,16 @@
       <c r="S27" s="1">
         <v>0.36049999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U27" s="1">
+        <v>16</v>
+      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1">
+        <v>275</v>
+      </c>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1427,10 +1552,6 @@
       <c r="I28">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="J28">
-        <f t="shared" ref="J28:J33" si="0">H28/1000</f>
-        <v>4.34</v>
-      </c>
       <c r="K28">
         <v>32</v>
       </c>
@@ -1455,8 +1576,14 @@
       <c r="S28">
         <v>0.49359999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>32</v>
+      </c>
+      <c r="W28">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>64</v>
       </c>
@@ -1481,10 +1608,6 @@
       <c r="I29">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>8.64</v>
-      </c>
       <c r="K29">
         <v>64</v>
       </c>
@@ -1509,8 +1632,14 @@
       <c r="S29">
         <v>0.68640000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>64</v>
+      </c>
+      <c r="W29">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>128</v>
       </c>
@@ -1535,10 +1664,6 @@
       <c r="I30">
         <v>2.53E-2</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>17.3</v>
-      </c>
       <c r="K30">
         <v>128</v>
       </c>
@@ -1563,8 +1688,14 @@
       <c r="S30">
         <v>0.57450000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>128</v>
+      </c>
+      <c r="W30">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>256</v>
       </c>
@@ -1589,10 +1720,6 @@
       <c r="I31" s="1">
         <v>1.84E-2</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>34.700000000000003</v>
-      </c>
       <c r="K31">
         <v>256</v>
       </c>
@@ -1617,8 +1744,14 @@
       <c r="S31">
         <v>0.52170000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>256</v>
+      </c>
+      <c r="W31">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>512</v>
       </c>
@@ -1643,10 +1776,6 @@
       <c r="I32">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
       <c r="K32">
         <v>512</v>
       </c>
@@ -1671,8 +1800,14 @@
       <c r="S32">
         <v>0.50439999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>512</v>
+      </c>
+      <c r="W32">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1024</v>
       </c>
@@ -1697,10 +1832,6 @@
       <c r="I33">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
       <c r="K33">
         <v>1024</v>
       </c>
@@ -1725,13 +1856,30 @@
       <c r="S33">
         <v>0.51759999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>1024</v>
+      </c>
+      <c r="W33">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1741,8 +1889,44 @@
       <c r="M36">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" t="s">
+        <v>2</v>
+      </c>
+      <c r="V36" t="s">
+        <v>3</v>
+      </c>
+      <c r="W36" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1758,8 +1942,32 @@
       <c r="M37">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P37" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1">
+        <v>623</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="U37" s="1">
+        <v>16</v>
+      </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1">
+        <v>199</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37">
+        <v>151</v>
+      </c>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1784,8 +1992,26 @@
       <c r="M38">
         <v>8.64</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>32</v>
+      </c>
+      <c r="R38">
+        <v>930</v>
+      </c>
+      <c r="U38">
+        <v>32</v>
+      </c>
+      <c r="W38">
+        <v>375</v>
+      </c>
+      <c r="Y38">
+        <v>32</v>
+      </c>
+      <c r="AA38">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1798,11 +2024,41 @@
       <c r="D39">
         <v>8.2000000000000007E-3</v>
       </c>
+      <c r="F39" s="1">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>653</v>
+      </c>
+      <c r="H39" s="1">
+        <v>199</v>
+      </c>
       <c r="M39">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>64</v>
+      </c>
+      <c r="R39">
+        <v>1840</v>
+      </c>
+      <c r="U39">
+        <v>64</v>
+      </c>
+      <c r="W39">
+        <v>722</v>
+      </c>
+      <c r="X39">
+        <v>22190.406029251601</v>
+      </c>
+      <c r="Y39">
+        <v>64</v>
+      </c>
+      <c r="AA39">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -1815,11 +2071,41 @@
       <c r="D40">
         <v>4.5999999999999999E-3</v>
       </c>
+      <c r="F40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>757</v>
+      </c>
+      <c r="H40">
+        <v>375</v>
+      </c>
       <c r="M40">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>128</v>
+      </c>
+      <c r="R40">
+        <v>3700</v>
+      </c>
+      <c r="U40">
+        <v>128</v>
+      </c>
+      <c r="W40">
+        <v>1440</v>
+      </c>
+      <c r="X40">
+        <v>27152.323226992401</v>
+      </c>
+      <c r="Y40">
+        <v>128</v>
+      </c>
+      <c r="AA40">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>64</v>
       </c>
@@ -1832,11 +2118,41 @@
       <c r="D41">
         <v>0.24210000000000001</v>
       </c>
+      <c r="F41">
+        <v>64</v>
+      </c>
+      <c r="G41">
+        <v>965</v>
+      </c>
+      <c r="H41">
+        <v>722</v>
+      </c>
       <c r="M41">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>256</v>
+      </c>
+      <c r="R41">
+        <v>7370</v>
+      </c>
+      <c r="U41">
+        <v>256</v>
+      </c>
+      <c r="W41">
+        <v>2740</v>
+      </c>
+      <c r="X41">
+        <v>36283.115023310304</v>
+      </c>
+      <c r="Y41">
+        <v>256</v>
+      </c>
+      <c r="AA41">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>128</v>
       </c>
@@ -1849,6 +2165,15 @@
       <c r="D42">
         <v>0.1555</v>
       </c>
+      <c r="F42">
+        <v>128</v>
+      </c>
+      <c r="G42">
+        <v>1300</v>
+      </c>
+      <c r="H42">
+        <v>1440</v>
+      </c>
       <c r="I42">
         <v>0.79</v>
       </c>
@@ -1858,8 +2183,29 @@
       <c r="M42">
         <v>139</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>512</v>
+      </c>
+      <c r="R42">
+        <v>14800</v>
+      </c>
+      <c r="U42">
+        <v>512</v>
+      </c>
+      <c r="W42">
+        <v>5780</v>
+      </c>
+      <c r="X42">
+        <v>57696.337114398899</v>
+      </c>
+      <c r="Y42">
+        <v>512</v>
+      </c>
+      <c r="AA42">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>256</v>
       </c>
@@ -1872,14 +2218,47 @@
       <c r="D43">
         <v>9.1499999999999998E-2</v>
       </c>
+      <c r="E43">
+        <v>2460</v>
+      </c>
+      <c r="F43">
+        <v>256</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H43">
+        <v>2740</v>
+      </c>
       <c r="I43">
         <v>9.48</v>
       </c>
       <c r="J43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>1024</v>
+      </c>
+      <c r="R43">
+        <v>29600</v>
+      </c>
+      <c r="U43">
+        <v>1024</v>
+      </c>
+      <c r="W43">
+        <v>11800</v>
+      </c>
+      <c r="X43">
+        <v>100314.97131128699</v>
+      </c>
+      <c r="Y43">
+        <v>1024</v>
+      </c>
+      <c r="AA43">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>512</v>
       </c>
@@ -1892,8 +2271,20 @@
       <c r="D44">
         <v>8.6599999999999996E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>5160</v>
+      </c>
+      <c r="F44">
+        <v>512</v>
+      </c>
+      <c r="G44">
+        <v>3600</v>
+      </c>
+      <c r="H44">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1024</v>
       </c>
@@ -1906,8 +2297,20 @@
       <c r="D45">
         <v>5.8700000000000002E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>14000</v>
+      </c>
+      <c r="F45">
+        <v>1024</v>
+      </c>
+      <c r="G45">
+        <v>6600</v>
+      </c>
+      <c r="H45">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1915,15 +2318,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
       <c r="F48" t="s">
         <v>1</v>
       </c>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
       <c r="P48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="U48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
       <c r="F49" t="s">
         <v>2</v>
       </c>
@@ -1936,6 +2363,18 @@
       <c r="I49" t="s">
         <v>21</v>
       </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N49" t="s">
+        <v>21</v>
+      </c>
       <c r="P49" t="s">
         <v>2</v>
       </c>
@@ -1948,8 +2387,41 @@
       <c r="S49" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="U49" t="s">
+        <v>2</v>
+      </c>
+      <c r="V49" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" t="s">
+        <v>7</v>
+      </c>
+      <c r="X49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>550</v>
+      </c>
+      <c r="C50">
+        <v>630</v>
+      </c>
+      <c r="D50">
+        <v>8.2000000000000007E-3</v>
+      </c>
       <c r="F50">
         <v>16</v>
       </c>
@@ -1962,20 +2434,55 @@
       <c r="I50">
         <v>1.1000000000000001E-3</v>
       </c>
+      <c r="K50" s="3">
+        <v>16</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3">
+        <v>1990</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.36049999999999999</v>
+      </c>
       <c r="P50" s="3">
         <v>16</v>
       </c>
-      <c r="Q50" s="3">
-        <v>516</v>
-      </c>
+      <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>3230</v>
+        <v>1590</v>
       </c>
       <c r="S50" s="3">
         <v>0.36049999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="U50" s="3">
+        <v>16</v>
+      </c>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3">
+        <v>1330</v>
+      </c>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>712</v>
+      </c>
+      <c r="C51">
+        <v>1250</v>
+      </c>
+      <c r="D51">
+        <v>4.5999999999999999E-3</v>
+      </c>
       <c r="F51">
         <v>32</v>
       </c>
@@ -1988,14 +2495,50 @@
       <c r="I51">
         <v>6.9999999999999999E-4</v>
       </c>
+      <c r="K51">
+        <v>32</v>
+      </c>
+      <c r="M51">
+        <v>3860</v>
+      </c>
+      <c r="N51">
+        <v>0.49359999999999998</v>
+      </c>
       <c r="P51">
         <v>32</v>
       </c>
+      <c r="R51">
+        <v>3560</v>
+      </c>
       <c r="S51">
         <v>0.49359999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <v>32</v>
+      </c>
+      <c r="W51">
+        <v>2440</v>
+      </c>
+      <c r="Y51">
+        <v>32</v>
+      </c>
+      <c r="AA51">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>976</v>
+      </c>
+      <c r="C52">
+        <v>2450</v>
+      </c>
+      <c r="D52">
+        <v>0.24210000000000001</v>
+      </c>
       <c r="F52">
         <v>64</v>
       </c>
@@ -2008,14 +2551,50 @@
       <c r="I52">
         <v>1.1999999999999999E-3</v>
       </c>
+      <c r="K52">
+        <v>64</v>
+      </c>
+      <c r="M52">
+        <v>7820</v>
+      </c>
+      <c r="N52">
+        <v>0.68640000000000001</v>
+      </c>
       <c r="P52">
         <v>64</v>
       </c>
+      <c r="R52">
+        <v>5970</v>
+      </c>
       <c r="S52">
         <v>0.68640000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <v>64</v>
+      </c>
+      <c r="W52">
+        <v>4790</v>
+      </c>
+      <c r="Y52">
+        <v>64</v>
+      </c>
+      <c r="AA52">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>128</v>
+      </c>
+      <c r="B53">
+        <v>1500</v>
+      </c>
+      <c r="C53">
+        <v>5020</v>
+      </c>
+      <c r="D53">
+        <v>0.1555</v>
+      </c>
       <c r="F53">
         <v>128</v>
       </c>
@@ -2028,14 +2607,50 @@
       <c r="I53">
         <v>2.53E-2</v>
       </c>
+      <c r="K53">
+        <v>128</v>
+      </c>
+      <c r="M53">
+        <v>18000</v>
+      </c>
+      <c r="N53">
+        <v>0.57450000000000001</v>
+      </c>
       <c r="P53">
         <v>128</v>
       </c>
+      <c r="R53">
+        <v>11900</v>
+      </c>
       <c r="S53">
         <v>0.57450000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <v>128</v>
+      </c>
+      <c r="W53">
+        <v>9520</v>
+      </c>
+      <c r="Y53">
+        <v>128</v>
+      </c>
+      <c r="AA53">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>256</v>
+      </c>
+      <c r="B54">
+        <v>2100</v>
+      </c>
+      <c r="C54">
+        <v>13000</v>
+      </c>
+      <c r="D54">
+        <v>9.1499999999999998E-2</v>
+      </c>
       <c r="F54" s="3">
         <v>256</v>
       </c>
@@ -2048,50 +2663,1892 @@
       <c r="I54" s="3">
         <v>1.84E-2</v>
       </c>
+      <c r="K54">
+        <v>256</v>
+      </c>
+      <c r="M54">
+        <v>30800</v>
+      </c>
+      <c r="N54">
+        <v>0.52170000000000005</v>
+      </c>
       <c r="P54">
         <v>256</v>
       </c>
+      <c r="R54">
+        <v>26200</v>
+      </c>
       <c r="S54">
         <v>0.52170000000000005</v>
       </c>
-    </row>
-    <row r="55" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>256</v>
+      </c>
+      <c r="W54">
+        <v>21300</v>
+      </c>
+      <c r="Y54">
+        <v>256</v>
+      </c>
+      <c r="AA54">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>512</v>
+      </c>
+      <c r="D55">
+        <v>8.6599999999999996E-2</v>
+      </c>
       <c r="F55">
         <v>512</v>
       </c>
       <c r="G55" s="3">
         <v>2100</v>
       </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
       <c r="I55">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="P55">
-        <v>512</v>
-      </c>
-      <c r="S55">
-        <v>0.50439999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="6:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1024</v>
+      </c>
+      <c r="D56">
+        <v>5.8700000000000002E-2</v>
+      </c>
       <c r="F56">
         <v>1024</v>
       </c>
       <c r="G56" s="3">
         <v>2700</v>
       </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
       <c r="I56">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="P56">
-        <v>1024</v>
-      </c>
-      <c r="S56">
-        <v>0.51759999999999995</v>
-      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U57" t="s">
+        <v>2</v>
+      </c>
+      <c r="V57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" t="s">
+        <v>7</v>
+      </c>
+      <c r="X57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>184636.25871230001</v>
+      </c>
+      <c r="U58" s="3">
+        <v>16</v>
+      </c>
+      <c r="V58">
+        <v>564</v>
+      </c>
+      <c r="W58" s="3">
+        <v>781</v>
+      </c>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q59">
+        <v>117832.944360619</v>
+      </c>
+      <c r="U59">
+        <v>32</v>
+      </c>
+      <c r="V59">
+        <v>620</v>
+      </c>
+      <c r="W59">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q60">
+        <v>97097.424962630394</v>
+      </c>
+      <c r="U60">
+        <v>64</v>
+      </c>
+      <c r="V60">
+        <v>830</v>
+      </c>
+      <c r="W60">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>564</v>
+      </c>
+      <c r="C61" s="3">
+        <v>781</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="Q61">
+        <v>88527.1139954596</v>
+      </c>
+      <c r="U61">
+        <v>128</v>
+      </c>
+      <c r="V61">
+        <v>1200</v>
+      </c>
+      <c r="W61">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>620</v>
+      </c>
+      <c r="C62">
+        <v>1490</v>
+      </c>
+      <c r="Q62">
+        <v>90599.015417731905</v>
+      </c>
+      <c r="U62">
+        <v>256</v>
+      </c>
+      <c r="V62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W62">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>830</v>
+      </c>
+      <c r="C63">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>128</v>
+      </c>
+      <c r="B64">
+        <v>1200</v>
+      </c>
+      <c r="C64">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>256</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C65">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="3">
+        <v>118433.65462494548</v>
+      </c>
+      <c r="C2" s="3">
+        <v>97960.79</v>
+      </c>
+      <c r="D2">
+        <v>100314.97131128699</v>
+      </c>
+      <c r="E2">
+        <v>92130.496892024705</v>
+      </c>
+      <c r="G2">
+        <f>B2/1000</f>
+        <v>118.43365462494549</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="0">C2/1000</f>
+        <v>97.960789999999989</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>100.314971311287</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>92.130496892024709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>512</v>
+      </c>
+      <c r="B3" s="3">
+        <v>74026.55</v>
+      </c>
+      <c r="C3" s="3">
+        <v>70396.2</v>
+      </c>
+      <c r="D3">
+        <v>57696.337114398899</v>
+      </c>
+      <c r="E3">
+        <v>48480.298604916497</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">B3/1000</f>
+        <v>74.02655</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="2">C3/1000</f>
+        <v>70.396199999999993</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="3">D3/1000</f>
+        <v>57.696337114398901</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="4">E3/1000</f>
+        <v>48.480298604916499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>256</v>
+      </c>
+      <c r="B4" s="3">
+        <v>51609.238615921597</v>
+      </c>
+      <c r="C4" s="3">
+        <v>49004.664392009603</v>
+      </c>
+      <c r="D4">
+        <v>36283.115023310304</v>
+      </c>
+      <c r="E4">
+        <v>28260.578205953701</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>51.609238615921598</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>49.004664392009602</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>36.283115023310302</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>28.260578205953703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40712.721945447898</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38348.401353237598</v>
+      </c>
+      <c r="D5">
+        <v>27152.323226992401</v>
+      </c>
+      <c r="E5">
+        <v>18720.504174959598</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>40.712721945447896</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>38.348401353237598</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>27.152323226992401</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>18.720504174959597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
+        <v>34974.410998041698</v>
+      </c>
+      <c r="C6" s="3">
+        <v>32883.876708810501</v>
+      </c>
+      <c r="D6">
+        <v>22190.406029251601</v>
+      </c>
+      <c r="E6">
+        <v>13474.267864581199</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>34.974410998041698</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>32.883876708810504</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>22.190406029251601</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>13.474267864581199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>32563.700538217901</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30476.351564468299</v>
+      </c>
+      <c r="D7">
+        <v>20052.9159465388</v>
+      </c>
+      <c r="E7">
+        <v>12070.4171209793</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>32.563700538217901</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>30.476351564468299</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>20.0529159465388</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>12.0704171209793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>41750.685716452703</v>
+      </c>
+      <c r="C8" s="3">
+        <v>29036.5764236264</v>
+      </c>
+      <c r="D8">
+        <v>19008.6870382864</v>
+      </c>
+      <c r="E8">
+        <v>11034.9916633219</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>41.750685716452701</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>29.0365764236264</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>19.0086870382864</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>11.0349916633219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>256</v>
+      </c>
+      <c r="B14" s="3">
+        <v>215620.13771282701</v>
+      </c>
+      <c r="C14" s="3">
+        <v>211332.94446664699</v>
+      </c>
+      <c r="D14">
+        <v>184636.25871230001</v>
+      </c>
+      <c r="E14">
+        <v>148241.46868697301</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G10:G18" si="5">B14/1000</f>
+        <v>215.62013771282702</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H10:H18" si="6">C14/1000</f>
+        <v>211.33294446664701</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I10:I18" si="7">D14/1000</f>
+        <v>184.63625871230002</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J10:J18" si="8">E14/1000</f>
+        <v>148.24146868697301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3">
+        <v>198020.303188383</v>
+      </c>
+      <c r="C15" s="3">
+        <v>142819.705745552</v>
+      </c>
+      <c r="D15">
+        <v>117832.944360619</v>
+      </c>
+      <c r="E15">
+        <v>84684.927968744101</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>198.020303188383</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>142.819705745552</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>117.83294436061901</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>84.684927968744105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3">
+        <v>148595.45562062401</v>
+      </c>
+      <c r="C16" s="3">
+        <v>119487.982930849</v>
+      </c>
+      <c r="D16">
+        <v>97097.424962630394</v>
+      </c>
+      <c r="E16">
+        <v>54268.900697642101</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>148.59545562062402</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>119.487982930849</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>97.097424962630399</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>54.268900697642103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>135113.89062997999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>126132.787283257</v>
+      </c>
+      <c r="D17">
+        <v>88527.1139954596</v>
+      </c>
+      <c r="E17">
+        <v>45525.879822950701</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>135.11389062997998</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>126.132787283257</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>88.527113995459601</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>45.525879822950699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>133343.88302003199</v>
+      </c>
+      <c r="C18" s="3">
+        <v>108420.473978668</v>
+      </c>
+      <c r="D18">
+        <v>90599.015417731905</v>
+      </c>
+      <c r="E18">
+        <v>41188.675593451502</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>133.343883020032</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>108.420473978668</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>90.599015417731906</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>41.188675593451499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>687</v>
+      </c>
+      <c r="O20">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>793</v>
+      </c>
+      <c r="O21">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>64</v>
+      </c>
+      <c r="N22">
+        <v>973</v>
+      </c>
+      <c r="O22">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>564</v>
+      </c>
+      <c r="C23" s="3">
+        <v>781</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>550</v>
+      </c>
+      <c r="G23">
+        <v>630</v>
+      </c>
+      <c r="M23">
+        <v>128</v>
+      </c>
+      <c r="N23">
+        <v>1300</v>
+      </c>
+      <c r="O23">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>620</v>
+      </c>
+      <c r="C24">
+        <v>1490</v>
+      </c>
+      <c r="E24">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>712</v>
+      </c>
+      <c r="G24">
+        <v>1250</v>
+      </c>
+      <c r="M24">
+        <v>256</v>
+      </c>
+      <c r="N24">
+        <v>2000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>830</v>
+      </c>
+      <c r="C25">
+        <v>2920</v>
+      </c>
+      <c r="E25">
+        <v>64</v>
+      </c>
+      <c r="F25">
+        <v>976</v>
+      </c>
+      <c r="G25">
+        <v>2450</v>
+      </c>
+      <c r="M25">
+        <v>512</v>
+      </c>
+      <c r="N25">
+        <v>3400</v>
+      </c>
+      <c r="O25">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>128</v>
+      </c>
+      <c r="B26">
+        <v>1200</v>
+      </c>
+      <c r="C26">
+        <v>5950</v>
+      </c>
+      <c r="E26">
+        <v>128</v>
+      </c>
+      <c r="F26">
+        <v>1500</v>
+      </c>
+      <c r="G26">
+        <v>5020</v>
+      </c>
+      <c r="M26">
+        <v>1024</v>
+      </c>
+      <c r="N26">
+        <v>6300</v>
+      </c>
+      <c r="O26">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>256</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C27">
+        <v>14200</v>
+      </c>
+      <c r="E27">
+        <v>256</v>
+      </c>
+      <c r="F27">
+        <v>2100</v>
+      </c>
+      <c r="G27">
+        <v>13000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:T32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <v>1024</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1">
+        <v>512</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>33.6546249454845</v>
+      </c>
+      <c r="C3" s="3">
+        <v>53.498278153563597</v>
+      </c>
+      <c r="D3" s="3">
+        <v>60.786384501340201</v>
+      </c>
+      <c r="E3">
+        <v>60.786384501340201</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3">
+        <v>18.160081409462499</v>
+      </c>
+      <c r="J3" s="3">
+        <v>21.397837390267799</v>
+      </c>
+      <c r="K3" s="3">
+        <v>26.6906217296679</v>
+      </c>
+      <c r="L3" s="3">
+        <v>26.6906217296679</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="3">
+        <v>11.863775366329101</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>11.3893383538457</v>
+      </c>
+      <c r="R3" s="3">
+        <v>13.7005441870316</v>
+      </c>
+      <c r="S3">
+        <v>13.7005441870316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>9.6467255744009393</v>
+      </c>
+      <c r="C4" s="3">
+        <v>14.6272132807531</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13.2543169816181</v>
+      </c>
+      <c r="E4">
+        <v>13.2543169816181</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>5.31103392254981</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5.0158514149408697</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6.5981244510922599</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6.5981244510922599</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3">
+        <v>29600</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27500</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E5">
+        <v>27500</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J5" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8590</v>
+      </c>
+      <c r="L5" s="3">
+        <v>13700</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7370</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>6920</v>
+      </c>
+      <c r="R5" s="3">
+        <v>4260</v>
+      </c>
+      <c r="S5">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3">
+        <f>(B5*4)+B3</f>
+        <v>118433.65462494548</v>
+      </c>
+      <c r="C6" s="3">
+        <v>137553.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>97960.79</v>
+      </c>
+      <c r="E6">
+        <v>97960.79</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3">
+        <v>74026.55</v>
+      </c>
+      <c r="J6" s="3">
+        <v>82230.100000000006</v>
+      </c>
+      <c r="K6" s="3">
+        <v>70396.2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>70396.2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>51609.238615921597</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>50339.956771836398</v>
+      </c>
+      <c r="R6" s="3">
+        <v>49004.664392009603</v>
+      </c>
+      <c r="S6">
+        <v>49004.664392009603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>64</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>4.6633660712100502</v>
+      </c>
+      <c r="C17">
+        <v>6.0729968522708999</v>
+      </c>
+      <c r="D17">
+        <v>7.6342378992815201</v>
+      </c>
+      <c r="E17">
+        <v>7.6342378992815201</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>2.21298457115331</v>
+      </c>
+      <c r="J17">
+        <v>2.6657974872553698</v>
+      </c>
+      <c r="K17">
+        <v>3.7314654093401001</v>
+      </c>
+      <c r="L17">
+        <v>3.7314654093401001</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>1.0688390840898101</v>
+      </c>
+      <c r="Q17">
+        <v>1.4633403943722301</v>
+      </c>
+      <c r="R17">
+        <v>1.59755026251416</v>
+      </c>
+      <c r="S17">
+        <v>1.59755026251416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>3700</v>
+      </c>
+      <c r="C19">
+        <v>3460</v>
+      </c>
+      <c r="D19">
+        <v>2130</v>
+      </c>
+      <c r="E19">
+        <v>3460</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>1840</v>
+      </c>
+      <c r="J19">
+        <v>1720</v>
+      </c>
+      <c r="K19">
+        <v>1070</v>
+      </c>
+      <c r="L19">
+        <v>1720</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19">
+        <v>930</v>
+      </c>
+      <c r="Q19">
+        <v>867</v>
+      </c>
+      <c r="R19">
+        <v>544</v>
+      </c>
+      <c r="S19">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>40712.721945447898</v>
+      </c>
+      <c r="C20" s="3">
+        <v>41537.333411301202</v>
+      </c>
+      <c r="D20" s="3">
+        <v>38348.401353237598</v>
+      </c>
+      <c r="E20">
+        <v>38348.401353237598</v>
+      </c>
+      <c r="I20" s="3">
+        <v>34974.410998041698</v>
+      </c>
+      <c r="J20" s="3">
+        <v>34414.917450155503</v>
+      </c>
+      <c r="K20" s="3">
+        <v>32883.876708810501</v>
+      </c>
+      <c r="L20">
+        <v>32883.876708810501</v>
+      </c>
+      <c r="P20" s="3">
+        <v>32563.700538217901</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>31226.716503616299</v>
+      </c>
+      <c r="R20" s="3">
+        <v>30476.351564468299</v>
+      </c>
+      <c r="S20">
+        <v>30476.351564468299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>139000.06366408104</v>
+      </c>
+      <c r="J24">
+        <v>139000.08123075342</v>
+      </c>
+      <c r="K24">
+        <v>139000.10981252408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="O25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>8</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1024</v>
+      </c>
+      <c r="I26" s="1">
+        <v>118433.65462494548</v>
+      </c>
+      <c r="J26" s="1">
+        <v>137553.5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>97960.79</v>
+      </c>
+      <c r="L26">
+        <v>100314.97131128699</v>
+      </c>
+      <c r="M26">
+        <v>92130.496892024705</v>
+      </c>
+      <c r="O26">
+        <v>1024</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>512</v>
+      </c>
+      <c r="I27" s="1">
+        <v>74026.55</v>
+      </c>
+      <c r="J27" s="1">
+        <v>82230.100000000006</v>
+      </c>
+      <c r="K27" s="1">
+        <v>70396.2</v>
+      </c>
+      <c r="L27">
+        <v>57696.337114398899</v>
+      </c>
+      <c r="M27">
+        <v>48480.298604916497</v>
+      </c>
+      <c r="O27">
+        <v>512</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="H28">
+        <v>256</v>
+      </c>
+      <c r="I28" s="1">
+        <v>51609.238615921597</v>
+      </c>
+      <c r="J28" s="1">
+        <v>50339.956771836398</v>
+      </c>
+      <c r="K28" s="1">
+        <v>49004.664392009603</v>
+      </c>
+      <c r="L28">
+        <v>36283.115023310304</v>
+      </c>
+      <c r="M28">
+        <v>28260.578205953701</v>
+      </c>
+      <c r="O28">
+        <v>256</v>
+      </c>
+      <c r="P28" s="4">
+        <v>215620.13771282701</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>209622.647745447</v>
+      </c>
+      <c r="R28" s="4">
+        <v>211332.94446664699</v>
+      </c>
+      <c r="S28">
+        <v>184636.25871230001</v>
+      </c>
+      <c r="T28">
+        <v>148241.46868697301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>128</v>
+      </c>
+      <c r="I29" s="1">
+        <v>40712.721945447898</v>
+      </c>
+      <c r="J29" s="1">
+        <v>41537.333411301202</v>
+      </c>
+      <c r="K29" s="1">
+        <v>38348.401353237598</v>
+      </c>
+      <c r="L29">
+        <v>27152.323226992401</v>
+      </c>
+      <c r="M29">
+        <v>18720.504174959598</v>
+      </c>
+      <c r="O29">
+        <v>128</v>
+      </c>
+      <c r="P29" s="4">
+        <v>198020.303188383</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>142832.28069498099</v>
+      </c>
+      <c r="R29" s="4">
+        <v>142819.705745552</v>
+      </c>
+      <c r="S29">
+        <v>117832.944360619</v>
+      </c>
+      <c r="T29">
+        <v>84684.927968744101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.60482479335992401</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.99359468816763796</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.81487567943700101</v>
+      </c>
+      <c r="E30">
+        <v>0.81487567943700101</v>
+      </c>
+      <c r="H30">
+        <v>64</v>
+      </c>
+      <c r="I30" s="1">
+        <v>34974.410998041698</v>
+      </c>
+      <c r="J30" s="1">
+        <v>34414.917450155503</v>
+      </c>
+      <c r="K30" s="1">
+        <v>32883.876708810501</v>
+      </c>
+      <c r="L30">
+        <v>22190.406029251601</v>
+      </c>
+      <c r="M30">
+        <v>13474.267864581199</v>
+      </c>
+      <c r="O30">
+        <v>64</v>
+      </c>
+      <c r="P30" s="4">
+        <v>148595.45562062401</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>119414.46346657599</v>
+      </c>
+      <c r="R30" s="4">
+        <v>119487.982930849</v>
+      </c>
+      <c r="S30">
+        <v>97097.424962630394</v>
+      </c>
+      <c r="T30">
+        <v>54268.900697642101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31" s="1">
+        <v>32563.700538217901</v>
+      </c>
+      <c r="J31" s="1">
+        <v>31226.716503616299</v>
+      </c>
+      <c r="K31" s="1">
+        <v>30476.351564468299</v>
+      </c>
+      <c r="L31">
+        <v>20052.9159465388</v>
+      </c>
+      <c r="M31">
+        <v>12070.4171209793</v>
+      </c>
+      <c r="O31">
+        <v>32</v>
+      </c>
+      <c r="P31" s="4">
+        <v>135113.89062997999</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>128180.367202493</v>
+      </c>
+      <c r="R31" s="4">
+        <v>126132.787283257</v>
+      </c>
+      <c r="S31">
+        <v>88527.1139954596</v>
+      </c>
+      <c r="T31">
+        <v>45525.879822950701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3">
+        <v>623</v>
+      </c>
+      <c r="C32" s="3">
+        <v>432</v>
+      </c>
+      <c r="D32" s="3">
+        <v>275</v>
+      </c>
+      <c r="E32" s="3">
+        <v>432</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1">
+        <v>41750.685716452703</v>
+      </c>
+      <c r="J32" s="1">
+        <v>29388.950377775898</v>
+      </c>
+      <c r="K32" s="1">
+        <v>29036.5764236264</v>
+      </c>
+      <c r="L32">
+        <v>19008.6870382864</v>
+      </c>
+      <c r="M32">
+        <v>11034.9916633219</v>
+      </c>
+      <c r="O32">
+        <v>16</v>
+      </c>
+      <c r="P32" s="4">
+        <v>133343.88302003199</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>108138.090364042</v>
+      </c>
+      <c r="R32" s="4">
+        <v>108420.473978668</v>
+      </c>
+      <c r="S32">
+        <v>90599.015417731905</v>
+      </c>
+      <c r="T32">
+        <v>41188.675593451502</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>41750.685716452703</v>
+      </c>
+      <c r="C33" s="3">
+        <v>29388.950377775898</v>
+      </c>
+      <c r="D33" s="3">
+        <v>29036.5764236264</v>
+      </c>
+      <c r="E33">
+        <v>29036.5764236264</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1024</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>6.3664081027324695E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.1230753426739105E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.109812524068104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>6.3664081027324695E-2</v>
+      </c>
+      <c r="H4">
+        <v>8.1230753426739105E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.109812524068104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>139000</v>
+      </c>
+      <c r="C5">
+        <v>139000</v>
+      </c>
+      <c r="D5">
+        <v>139000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3">
+        <v>313000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>313000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>313000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>B4+B5</f>
+        <v>139000.06366408104</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:D6" si="0">C4+C5</f>
+        <v>139000.08123075342</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>139000.10981252408</v>
+      </c>
+      <c r="G6">
+        <f>G4+G5</f>
+        <v>313000.06366408104</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6" si="1">H4+H5</f>
+        <v>313000.08123075345</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6" si="2">I4+I5</f>
+        <v>313000.10981252405</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>